--- a/analysis/chla_2.1_mar.xlsx
+++ b/analysis/chla_2.1_mar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunnigan_S\OneDrive - Florida Department of Environmental Protection\OPEN_PROJECTS\chla-nerrs-catalyst\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://floridadep-my.sharepoint.com/personal/shannon_dunnigan_dep_state_fl_us/Documents/OPEN_PROJECTS/chla-nerrs-catalyst/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{A635C4C2-2336-46B7-B2A8-D540454C3367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B55476-214C-4E61-96A7-37264FA86C4D}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{A635C4C2-2336-46B7-B2A8-D540454C3367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{D035DCB9-E4A3-4692-9898-56929F21F8BB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3645" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tank" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="143">
   <si>
     <t>sample_no</t>
   </si>
@@ -478,6 +478,27 @@
   <si>
     <t>&lt;-2&gt;</t>
   </si>
+  <si>
+    <t>c=0, w=0</t>
+  </si>
+  <si>
+    <t>mar_sample 19_081921</t>
+  </si>
+  <si>
+    <t>High Tide</t>
+  </si>
+  <si>
+    <t>mar_sample 20_081921</t>
+  </si>
+  <si>
+    <t>Falling Tide</t>
+  </si>
+  <si>
+    <t>mar_sample 21_081921</t>
+  </si>
+  <si>
+    <t>Lowish Tide (Falling Tide)</t>
+  </si>
 </sst>
 </file>
 
@@ -486,7 +507,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +567,23 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -589,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -700,6 +738,36 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,11 +985,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J110" sqref="J110"/>
+      <selection pane="bottomRight" activeCell="A110" sqref="A110:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12441,7 +12509,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>0</v>
       </c>
@@ -12561,7 +12629,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>0</v>
       </c>
@@ -12683,7 +12751,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>0</v>
       </c>
@@ -12805,7 +12873,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>0</v>
       </c>
@@ -12925,7 +12993,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>0</v>
       </c>
@@ -13045,7 +13113,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>0</v>
       </c>
@@ -13165,7 +13233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>0</v>
       </c>
@@ -13285,7 +13353,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>0</v>
       </c>
@@ -13407,7 +13475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>0</v>
       </c>
@@ -13529,7 +13597,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>0</v>
       </c>
@@ -13649,7 +13717,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>0</v>
       </c>
@@ -13769,7 +13837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>0</v>
       </c>
@@ -13889,7 +13957,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>0</v>
       </c>
@@ -14009,61 +14077,2239 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F110" s="29"/>
-    </row>
-    <row r="111" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F111" s="29"/>
-    </row>
-    <row r="112" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F112" s="29"/>
-    </row>
-    <row r="113" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F113" s="29"/>
-    </row>
-    <row r="114" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F114" s="29"/>
-    </row>
-    <row r="115" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F115" s="29"/>
-    </row>
-    <row r="116" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F116" s="29"/>
-    </row>
-    <row r="117" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F117" s="29"/>
-    </row>
-    <row r="118" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F118" s="29"/>
-    </row>
-    <row r="119" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F119" s="29"/>
-    </row>
-    <row r="120" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F120" s="29"/>
-    </row>
-    <row r="121" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F121" s="29"/>
-    </row>
-    <row r="122" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F122" s="29"/>
-    </row>
-    <row r="123" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F123" s="29"/>
-    </row>
-    <row r="124" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F124" s="29"/>
-    </row>
-    <row r="125" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F125" s="29"/>
-    </row>
-    <row r="126" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F126" s="29"/>
-    </row>
-    <row r="127" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F127" s="29"/>
-    </row>
-    <row r="128" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="46">
+        <v>0</v>
+      </c>
+      <c r="B110" s="47">
+        <v>19</v>
+      </c>
+      <c r="C110" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110" s="48">
+        <v>44427.279166666667</v>
+      </c>
+      <c r="F110" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G110" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H110" s="48">
+        <v>44427.318055555559</v>
+      </c>
+      <c r="I110" s="48">
+        <v>44427.322916666664</v>
+      </c>
+      <c r="J110" s="49">
+        <v>44431.296527777777</v>
+      </c>
+      <c r="K110" s="47">
+        <v>5.75</v>
+      </c>
+      <c r="L110" s="47">
+        <v>20.56</v>
+      </c>
+      <c r="M110" s="50"/>
+      <c r="N110" s="51">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="O110" s="51">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="P110" s="47">
+        <v>-0.06</v>
+      </c>
+      <c r="Q110" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R110" s="50"/>
+      <c r="S110" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T110" s="47">
+        <v>5.99</v>
+      </c>
+      <c r="U110" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V110" s="47">
+        <v>3.06</v>
+      </c>
+      <c r="W110" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X110" s="47">
+        <v>94</v>
+      </c>
+      <c r="Y110" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z110" s="47">
+        <v>6.01</v>
+      </c>
+      <c r="AA110" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB110" s="47">
+        <v>34.81</v>
+      </c>
+      <c r="AC110" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD110" s="47">
+        <v>52.94</v>
+      </c>
+      <c r="AE110" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF110" s="47">
+        <v>4.17</v>
+      </c>
+      <c r="AG110" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH110" s="47">
+        <v>7.96</v>
+      </c>
+      <c r="AI110" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ110" s="47">
+        <v>28.52</v>
+      </c>
+      <c r="AK110" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL110" s="47">
+        <v>0.66</v>
+      </c>
+      <c r="AM110" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN110" s="47">
+        <v>2.62</v>
+      </c>
+      <c r="AO110" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP110" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ110" s="54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="46">
+        <v>0</v>
+      </c>
+      <c r="B111" s="47">
+        <v>19</v>
+      </c>
+      <c r="C111" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D111" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E111" s="48">
+        <v>44427.279166666667</v>
+      </c>
+      <c r="F111" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G111" s="47">
+        <v>1.2</v>
+      </c>
+      <c r="H111" s="48">
+        <v>44427.318055555559</v>
+      </c>
+      <c r="I111" s="48">
+        <v>44427.322916666664</v>
+      </c>
+      <c r="J111" s="49">
+        <v>44431.296527777777</v>
+      </c>
+      <c r="K111" s="47">
+        <v>5.64</v>
+      </c>
+      <c r="L111" s="47">
+        <v>20.16</v>
+      </c>
+      <c r="M111" s="50"/>
+      <c r="N111" s="51">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="O111" s="51">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="P111" s="47">
+        <v>-0.06</v>
+      </c>
+      <c r="Q111" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R111" s="50"/>
+      <c r="S111" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T111" s="47">
+        <v>5.99</v>
+      </c>
+      <c r="U111" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V111" s="47">
+        <v>3.06</v>
+      </c>
+      <c r="W111" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X111" s="47">
+        <v>94</v>
+      </c>
+      <c r="Y111" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z111" s="47">
+        <v>6.01</v>
+      </c>
+      <c r="AA111" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB111" s="47">
+        <v>34.81</v>
+      </c>
+      <c r="AC111" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD111" s="47">
+        <v>52.94</v>
+      </c>
+      <c r="AE111" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF111" s="47">
+        <v>4.17</v>
+      </c>
+      <c r="AG111" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH111" s="47">
+        <v>7.96</v>
+      </c>
+      <c r="AI111" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ111" s="47">
+        <v>28.52</v>
+      </c>
+      <c r="AK111" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL111" s="47">
+        <v>0.66</v>
+      </c>
+      <c r="AM111" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN111" s="47">
+        <v>2.62</v>
+      </c>
+      <c r="AO111" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP111" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ111" s="50"/>
+    </row>
+    <row r="112" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="46">
+        <v>0</v>
+      </c>
+      <c r="B112" s="47">
+        <v>19</v>
+      </c>
+      <c r="C112" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112" s="48">
+        <v>44427.279166666667</v>
+      </c>
+      <c r="F112" s="56"/>
+      <c r="G112" s="47">
+        <v>2.1</v>
+      </c>
+      <c r="H112" s="48">
+        <v>44427.319444444445</v>
+      </c>
+      <c r="I112" s="48">
+        <v>44427.322916666664</v>
+      </c>
+      <c r="J112" s="49">
+        <v>44431.297222222223</v>
+      </c>
+      <c r="K112" s="47">
+        <v>5.58</v>
+      </c>
+      <c r="L112" s="47">
+        <v>19.97</v>
+      </c>
+      <c r="M112" s="50"/>
+      <c r="N112" s="51">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="O112" s="51">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="P112" s="47">
+        <v>-0.06</v>
+      </c>
+      <c r="Q112" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R112" s="50"/>
+      <c r="S112" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T112" s="47">
+        <v>5.99</v>
+      </c>
+      <c r="U112" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V112" s="47">
+        <v>3.06</v>
+      </c>
+      <c r="W112" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X112" s="47">
+        <v>94</v>
+      </c>
+      <c r="Y112" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z112" s="47">
+        <v>6.01</v>
+      </c>
+      <c r="AA112" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB112" s="47">
+        <v>34.81</v>
+      </c>
+      <c r="AC112" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD112" s="47">
+        <v>52.94</v>
+      </c>
+      <c r="AE112" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF112" s="47">
+        <v>4.17</v>
+      </c>
+      <c r="AG112" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH112" s="47">
+        <v>7.96</v>
+      </c>
+      <c r="AI112" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ112" s="47">
+        <v>28.52</v>
+      </c>
+      <c r="AK112" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL112" s="47">
+        <v>0.66</v>
+      </c>
+      <c r="AM112" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN112" s="47">
+        <v>2.62</v>
+      </c>
+      <c r="AO112" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP112" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ112" s="50"/>
+    </row>
+    <row r="113" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="46">
+        <v>0</v>
+      </c>
+      <c r="B113" s="47">
+        <v>19</v>
+      </c>
+      <c r="C113" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E113" s="48">
+        <v>44427.279166666667</v>
+      </c>
+      <c r="F113" s="56"/>
+      <c r="G113" s="47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H113" s="48">
+        <v>44427.320138888892</v>
+      </c>
+      <c r="I113" s="48">
+        <v>44427.322916666664</v>
+      </c>
+      <c r="J113" s="49">
+        <v>44431.297222222223</v>
+      </c>
+      <c r="K113" s="47">
+        <v>5.55</v>
+      </c>
+      <c r="L113" s="47">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="M113" s="50"/>
+      <c r="N113" s="51">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="O113" s="51">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="P113" s="47">
+        <v>-0.06</v>
+      </c>
+      <c r="Q113" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R113" s="50"/>
+      <c r="S113" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T113" s="47">
+        <v>5.99</v>
+      </c>
+      <c r="U113" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V113" s="47">
+        <v>3.06</v>
+      </c>
+      <c r="W113" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X113" s="47">
+        <v>94</v>
+      </c>
+      <c r="Y113" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z113" s="47">
+        <v>6.01</v>
+      </c>
+      <c r="AA113" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB113" s="47">
+        <v>34.81</v>
+      </c>
+      <c r="AC113" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD113" s="47">
+        <v>52.94</v>
+      </c>
+      <c r="AE113" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF113" s="47">
+        <v>4.17</v>
+      </c>
+      <c r="AG113" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH113" s="47">
+        <v>7.96</v>
+      </c>
+      <c r="AI113" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ113" s="47">
+        <v>28.52</v>
+      </c>
+      <c r="AK113" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL113" s="47">
+        <v>0.66</v>
+      </c>
+      <c r="AM113" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN113" s="47">
+        <v>2.62</v>
+      </c>
+      <c r="AO113" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP113" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ113" s="50"/>
+    </row>
+    <row r="114" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="46">
+        <v>0</v>
+      </c>
+      <c r="B114" s="47">
+        <v>19</v>
+      </c>
+      <c r="C114" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E114" s="48">
+        <v>44427.279166666667</v>
+      </c>
+      <c r="F114" s="56"/>
+      <c r="G114" s="47">
+        <v>3.1</v>
+      </c>
+      <c r="H114" s="48">
+        <v>44427.321527777778</v>
+      </c>
+      <c r="I114" s="48">
+        <v>44427.322916666664</v>
+      </c>
+      <c r="J114" s="49">
+        <v>44431.29791666667</v>
+      </c>
+      <c r="K114" s="47">
+        <v>5.65</v>
+      </c>
+      <c r="L114" s="47">
+        <v>20.23</v>
+      </c>
+      <c r="M114" s="50"/>
+      <c r="N114" s="51">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="O114" s="51">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="P114" s="47">
+        <v>-0.06</v>
+      </c>
+      <c r="Q114" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R114" s="50"/>
+      <c r="S114" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T114" s="47">
+        <v>5.99</v>
+      </c>
+      <c r="U114" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V114" s="47">
+        <v>3.06</v>
+      </c>
+      <c r="W114" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X114" s="47">
+        <v>94</v>
+      </c>
+      <c r="Y114" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z114" s="47">
+        <v>6.01</v>
+      </c>
+      <c r="AA114" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB114" s="47">
+        <v>34.81</v>
+      </c>
+      <c r="AC114" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD114" s="47">
+        <v>52.94</v>
+      </c>
+      <c r="AE114" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF114" s="47">
+        <v>4.17</v>
+      </c>
+      <c r="AG114" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH114" s="47">
+        <v>7.96</v>
+      </c>
+      <c r="AI114" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ114" s="47">
+        <v>28.52</v>
+      </c>
+      <c r="AK114" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL114" s="47">
+        <v>0.66</v>
+      </c>
+      <c r="AM114" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN114" s="47">
+        <v>2.62</v>
+      </c>
+      <c r="AO114" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP114" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ114" s="50"/>
+    </row>
+    <row r="115" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="46">
+        <v>0</v>
+      </c>
+      <c r="B115" s="47">
+        <v>19</v>
+      </c>
+      <c r="C115" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E115" s="48">
+        <v>44427.279166666667</v>
+      </c>
+      <c r="F115" s="56"/>
+      <c r="G115" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="H115" s="48">
+        <v>44427.321527777778</v>
+      </c>
+      <c r="I115" s="48">
+        <v>44427.322916666664</v>
+      </c>
+      <c r="J115" s="49">
+        <v>44431.29791666667</v>
+      </c>
+      <c r="K115" s="47">
+        <v>5.44</v>
+      </c>
+      <c r="L115" s="47">
+        <v>19.45</v>
+      </c>
+      <c r="M115" s="50"/>
+      <c r="N115" s="51">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="O115" s="51">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="P115" s="47">
+        <v>-0.06</v>
+      </c>
+      <c r="Q115" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R115" s="50"/>
+      <c r="S115" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T115" s="47">
+        <v>5.99</v>
+      </c>
+      <c r="U115" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V115" s="47">
+        <v>3.06</v>
+      </c>
+      <c r="W115" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X115" s="47">
+        <v>94</v>
+      </c>
+      <c r="Y115" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z115" s="47">
+        <v>6.01</v>
+      </c>
+      <c r="AA115" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB115" s="47">
+        <v>34.81</v>
+      </c>
+      <c r="AC115" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD115" s="47">
+        <v>52.94</v>
+      </c>
+      <c r="AE115" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF115" s="47">
+        <v>4.17</v>
+      </c>
+      <c r="AG115" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH115" s="47">
+        <v>7.96</v>
+      </c>
+      <c r="AI115" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ115" s="47">
+        <v>28.52</v>
+      </c>
+      <c r="AK115" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL115" s="47">
+        <v>0.66</v>
+      </c>
+      <c r="AM115" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN115" s="47">
+        <v>2.62</v>
+      </c>
+      <c r="AO115" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP115" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ115" s="50"/>
+    </row>
+    <row r="116" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="46">
+        <v>0</v>
+      </c>
+      <c r="B116" s="47">
+        <v>20</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E116" s="48">
+        <v>44427.418055555558</v>
+      </c>
+      <c r="F116" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G116" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H116" s="48">
+        <v>44427.431250000001</v>
+      </c>
+      <c r="I116" s="48">
+        <v>44427.436111111114</v>
+      </c>
+      <c r="J116" s="49">
+        <v>44431.298611111109</v>
+      </c>
+      <c r="K116" s="47">
+        <v>5.6</v>
+      </c>
+      <c r="L116" s="47">
+        <v>20.04</v>
+      </c>
+      <c r="M116" s="50"/>
+      <c r="N116" s="51">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="O116" s="51">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="P116" s="47">
+        <v>-0.05</v>
+      </c>
+      <c r="Q116" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R116" s="50"/>
+      <c r="S116" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T116" s="47">
+        <v>5.01</v>
+      </c>
+      <c r="U116" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V116" s="47">
+        <v>2.59</v>
+      </c>
+      <c r="W116" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X116" s="47">
+        <v>96.5</v>
+      </c>
+      <c r="Y116" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z116" s="47">
+        <v>5.99</v>
+      </c>
+      <c r="AA116" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB116" s="47">
+        <v>34.96</v>
+      </c>
+      <c r="AC116" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD116" s="47">
+        <v>53.22</v>
+      </c>
+      <c r="AE116" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF116" s="47">
+        <v>3.37</v>
+      </c>
+      <c r="AG116" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH116" s="47">
+        <v>7.96</v>
+      </c>
+      <c r="AI116" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ116" s="47">
+        <v>30.29</v>
+      </c>
+      <c r="AK116" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL116" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="AM116" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN116" s="47">
+        <v>1.76</v>
+      </c>
+      <c r="AO116" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP116" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ116" s="57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="46">
+        <v>0</v>
+      </c>
+      <c r="B117" s="47">
+        <v>20</v>
+      </c>
+      <c r="C117" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" s="48">
+        <v>44427.418055555558</v>
+      </c>
+      <c r="F117" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G117" s="47">
+        <v>1.2</v>
+      </c>
+      <c r="H117" s="48">
+        <v>44427.431944444441</v>
+      </c>
+      <c r="I117" s="48">
+        <v>44427.436111111114</v>
+      </c>
+      <c r="J117" s="49">
+        <v>44431.298611111109</v>
+      </c>
+      <c r="K117" s="47">
+        <v>5.41</v>
+      </c>
+      <c r="L117" s="47">
+        <v>19.36</v>
+      </c>
+      <c r="M117" s="50"/>
+      <c r="N117" s="51">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="O117" s="51">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="P117" s="47">
+        <v>-0.05</v>
+      </c>
+      <c r="Q117" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R117" s="50"/>
+      <c r="S117" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T117" s="47">
+        <v>5.01</v>
+      </c>
+      <c r="U117" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V117" s="47">
+        <v>2.59</v>
+      </c>
+      <c r="W117" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X117" s="47">
+        <v>96.5</v>
+      </c>
+      <c r="Y117" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z117" s="47">
+        <v>5.99</v>
+      </c>
+      <c r="AA117" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB117" s="47">
+        <v>34.96</v>
+      </c>
+      <c r="AC117" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD117" s="47">
+        <v>53.22</v>
+      </c>
+      <c r="AE117" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF117" s="47">
+        <v>3.37</v>
+      </c>
+      <c r="AG117" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH117" s="47">
+        <v>7.96</v>
+      </c>
+      <c r="AI117" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ117" s="47">
+        <v>30.29</v>
+      </c>
+      <c r="AK117" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL117" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="AM117" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN117" s="47">
+        <v>1.76</v>
+      </c>
+      <c r="AO117" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP117" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ117" s="50"/>
+    </row>
+    <row r="118" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="46">
+        <v>0</v>
+      </c>
+      <c r="B118" s="47">
+        <v>20</v>
+      </c>
+      <c r="C118" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E118" s="48">
+        <v>44427.418055555558</v>
+      </c>
+      <c r="F118" s="56"/>
+      <c r="G118" s="47">
+        <v>2.1</v>
+      </c>
+      <c r="H118" s="48">
+        <v>44427.433333333334</v>
+      </c>
+      <c r="I118" s="48">
+        <v>44427.436111111114</v>
+      </c>
+      <c r="J118" s="49">
+        <v>44431.299305555556</v>
+      </c>
+      <c r="K118" s="47">
+        <v>5.44</v>
+      </c>
+      <c r="L118" s="47">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="M118" s="50"/>
+      <c r="N118" s="51">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="O118" s="51">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="P118" s="47">
+        <v>-0.05</v>
+      </c>
+      <c r="Q118" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R118" s="50"/>
+      <c r="S118" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T118" s="47">
+        <v>5.01</v>
+      </c>
+      <c r="U118" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V118" s="47">
+        <v>2.59</v>
+      </c>
+      <c r="W118" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X118" s="47">
+        <v>96.5</v>
+      </c>
+      <c r="Y118" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z118" s="47">
+        <v>5.99</v>
+      </c>
+      <c r="AA118" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB118" s="47">
+        <v>34.96</v>
+      </c>
+      <c r="AC118" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD118" s="47">
+        <v>53.22</v>
+      </c>
+      <c r="AE118" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF118" s="47">
+        <v>3.37</v>
+      </c>
+      <c r="AG118" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH118" s="47">
+        <v>7.96</v>
+      </c>
+      <c r="AI118" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ118" s="47">
+        <v>30.29</v>
+      </c>
+      <c r="AK118" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL118" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="AM118" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN118" s="47">
+        <v>1.76</v>
+      </c>
+      <c r="AO118" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP118" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ118" s="50"/>
+    </row>
+    <row r="119" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="46">
+        <v>0</v>
+      </c>
+      <c r="B119" s="47">
+        <v>20</v>
+      </c>
+      <c r="C119" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E119" s="48">
+        <v>44427.418055555558</v>
+      </c>
+      <c r="F119" s="56"/>
+      <c r="G119" s="47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H119" s="48">
+        <v>44427.433333333334</v>
+      </c>
+      <c r="I119" s="48">
+        <v>44427.436111111114</v>
+      </c>
+      <c r="J119" s="49">
+        <v>44431.299305555556</v>
+      </c>
+      <c r="K119" s="47">
+        <v>5.44</v>
+      </c>
+      <c r="L119" s="47">
+        <v>19.45</v>
+      </c>
+      <c r="M119" s="50"/>
+      <c r="N119" s="51">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="O119" s="51">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="P119" s="47">
+        <v>-0.05</v>
+      </c>
+      <c r="Q119" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R119" s="50"/>
+      <c r="S119" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T119" s="47">
+        <v>5.01</v>
+      </c>
+      <c r="U119" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V119" s="47">
+        <v>2.59</v>
+      </c>
+      <c r="W119" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X119" s="47">
+        <v>96.5</v>
+      </c>
+      <c r="Y119" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z119" s="47">
+        <v>5.99</v>
+      </c>
+      <c r="AA119" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB119" s="47">
+        <v>34.96</v>
+      </c>
+      <c r="AC119" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD119" s="47">
+        <v>53.22</v>
+      </c>
+      <c r="AE119" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF119" s="47">
+        <v>3.37</v>
+      </c>
+      <c r="AG119" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH119" s="47">
+        <v>7.96</v>
+      </c>
+      <c r="AI119" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ119" s="47">
+        <v>30.29</v>
+      </c>
+      <c r="AK119" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL119" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="AM119" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN119" s="47">
+        <v>1.76</v>
+      </c>
+      <c r="AO119" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP119" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ119" s="50"/>
+    </row>
+    <row r="120" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="46">
+        <v>0</v>
+      </c>
+      <c r="B120" s="47">
+        <v>20</v>
+      </c>
+      <c r="C120" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" s="48">
+        <v>44427.418055555558</v>
+      </c>
+      <c r="F120" s="56"/>
+      <c r="G120" s="47">
+        <v>3.1</v>
+      </c>
+      <c r="H120" s="48">
+        <v>44427.43472222222</v>
+      </c>
+      <c r="I120" s="48">
+        <v>44427.436111111114</v>
+      </c>
+      <c r="J120" s="49">
+        <v>44431.3</v>
+      </c>
+      <c r="K120" s="47">
+        <v>5.42</v>
+      </c>
+      <c r="L120" s="47">
+        <v>19.38</v>
+      </c>
+      <c r="M120" s="50"/>
+      <c r="N120" s="51">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="O120" s="51">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="P120" s="47">
+        <v>-0.05</v>
+      </c>
+      <c r="Q120" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R120" s="50"/>
+      <c r="S120" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T120" s="47">
+        <v>5.01</v>
+      </c>
+      <c r="U120" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V120" s="47">
+        <v>2.59</v>
+      </c>
+      <c r="W120" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X120" s="47">
+        <v>96.5</v>
+      </c>
+      <c r="Y120" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z120" s="47">
+        <v>5.99</v>
+      </c>
+      <c r="AA120" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB120" s="47">
+        <v>34.96</v>
+      </c>
+      <c r="AC120" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD120" s="47">
+        <v>53.22</v>
+      </c>
+      <c r="AE120" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF120" s="47">
+        <v>3.37</v>
+      </c>
+      <c r="AG120" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH120" s="47">
+        <v>7.96</v>
+      </c>
+      <c r="AI120" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ120" s="47">
+        <v>30.29</v>
+      </c>
+      <c r="AK120" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL120" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="AM120" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN120" s="47">
+        <v>1.76</v>
+      </c>
+      <c r="AO120" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP120" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ120" s="50"/>
+    </row>
+    <row r="121" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="46">
+        <v>0</v>
+      </c>
+      <c r="B121" s="47">
+        <v>20</v>
+      </c>
+      <c r="C121" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121" s="48">
+        <v>44427.418055555558</v>
+      </c>
+      <c r="F121" s="56"/>
+      <c r="G121" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="H121" s="48">
+        <v>44427.43472222222</v>
+      </c>
+      <c r="I121" s="48">
+        <v>44427.436111111114</v>
+      </c>
+      <c r="J121" s="49">
+        <v>44431.3</v>
+      </c>
+      <c r="K121" s="47">
+        <v>5.48</v>
+      </c>
+      <c r="L121" s="47">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="M121" s="50"/>
+      <c r="N121" s="51">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="O121" s="51">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="P121" s="47">
+        <v>-0.05</v>
+      </c>
+      <c r="Q121" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R121" s="50"/>
+      <c r="S121" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T121" s="47">
+        <v>5.01</v>
+      </c>
+      <c r="U121" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V121" s="47">
+        <v>2.59</v>
+      </c>
+      <c r="W121" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X121" s="47">
+        <v>96.5</v>
+      </c>
+      <c r="Y121" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z121" s="47">
+        <v>5.99</v>
+      </c>
+      <c r="AA121" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB121" s="47">
+        <v>34.96</v>
+      </c>
+      <c r="AC121" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD121" s="47">
+        <v>53.22</v>
+      </c>
+      <c r="AE121" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF121" s="47">
+        <v>3.37</v>
+      </c>
+      <c r="AG121" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH121" s="47">
+        <v>7.96</v>
+      </c>
+      <c r="AI121" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ121" s="47">
+        <v>30.29</v>
+      </c>
+      <c r="AK121" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL121" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="AM121" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN121" s="47">
+        <v>1.76</v>
+      </c>
+      <c r="AO121" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP121" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ121" s="50"/>
+    </row>
+    <row r="122" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="46">
+        <v>0</v>
+      </c>
+      <c r="B122" s="47">
+        <v>21</v>
+      </c>
+      <c r="C122" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E122" s="48">
+        <v>44427.585416666669</v>
+      </c>
+      <c r="F122" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G122" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H122" s="48">
+        <v>44427.597222222219</v>
+      </c>
+      <c r="I122" s="48">
+        <v>44427.602777777778</v>
+      </c>
+      <c r="J122" s="49">
+        <v>44431.300694444442</v>
+      </c>
+      <c r="K122" s="47">
+        <v>6.86</v>
+      </c>
+      <c r="L122" s="47">
+        <v>24.59</v>
+      </c>
+      <c r="M122" s="50"/>
+      <c r="N122" s="51">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="O122" s="51">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="P122" s="47">
+        <v>-0.04</v>
+      </c>
+      <c r="Q122" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R122" s="50"/>
+      <c r="S122" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T122" s="47">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="U122" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V122" s="47">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="W122" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X122" s="47">
+        <v>100.6</v>
+      </c>
+      <c r="Y122" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z122" s="47">
+        <v>6.16</v>
+      </c>
+      <c r="AA122" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB122" s="47">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="AC122" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD122" s="47">
+        <v>53.39</v>
+      </c>
+      <c r="AE122" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF122" s="47">
+        <v>3.62</v>
+      </c>
+      <c r="AG122" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH122" s="47">
+        <v>8</v>
+      </c>
+      <c r="AI122" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ122" s="47">
+        <v>31.12</v>
+      </c>
+      <c r="AK122" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL122" s="47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AM122" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN122" s="47">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AO122" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP122" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ122" s="57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="46">
+        <v>0</v>
+      </c>
+      <c r="B123" s="47">
+        <v>21</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E123" s="48">
+        <v>44427.585416666669</v>
+      </c>
+      <c r="F123" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G123" s="47">
+        <v>1.2</v>
+      </c>
+      <c r="H123" s="48">
+        <v>44427.597222222219</v>
+      </c>
+      <c r="I123" s="48">
+        <v>44427.602777777778</v>
+      </c>
+      <c r="J123" s="49">
+        <v>44431.300694444442</v>
+      </c>
+      <c r="K123" s="47">
+        <v>6.54</v>
+      </c>
+      <c r="L123" s="47">
+        <v>23.44</v>
+      </c>
+      <c r="M123" s="50"/>
+      <c r="N123" s="51">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="O123" s="51">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="P123" s="47">
+        <v>-0.04</v>
+      </c>
+      <c r="Q123" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R123" s="50"/>
+      <c r="S123" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T123" s="47">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="U123" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V123" s="47">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="W123" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X123" s="47">
+        <v>100.6</v>
+      </c>
+      <c r="Y123" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z123" s="47">
+        <v>6.16</v>
+      </c>
+      <c r="AA123" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB123" s="47">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="AC123" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD123" s="47">
+        <v>53.39</v>
+      </c>
+      <c r="AE123" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF123" s="47">
+        <v>3.62</v>
+      </c>
+      <c r="AG123" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH123" s="47">
+        <v>8</v>
+      </c>
+      <c r="AI123" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ123" s="47">
+        <v>31.12</v>
+      </c>
+      <c r="AK123" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL123" s="47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AM123" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN123" s="47">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AO123" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP123" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ123" s="50"/>
+    </row>
+    <row r="124" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="46">
+        <v>0</v>
+      </c>
+      <c r="B124" s="47">
+        <v>21</v>
+      </c>
+      <c r="C124" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D124" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E124" s="48">
+        <v>44427.585416666669</v>
+      </c>
+      <c r="F124" s="56"/>
+      <c r="G124" s="47">
+        <v>2.1</v>
+      </c>
+      <c r="H124" s="48">
+        <v>44427.598611111112</v>
+      </c>
+      <c r="I124" s="48">
+        <v>44427.602777777778</v>
+      </c>
+      <c r="J124" s="49">
+        <v>44431.301388888889</v>
+      </c>
+      <c r="K124" s="47">
+        <v>6.65</v>
+      </c>
+      <c r="L124" s="47">
+        <v>23.84</v>
+      </c>
+      <c r="M124" s="50"/>
+      <c r="N124" s="51">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="O124" s="51">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="P124" s="47">
+        <v>-0.04</v>
+      </c>
+      <c r="Q124" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R124" s="50"/>
+      <c r="S124" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T124" s="47">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="U124" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V124" s="47">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="W124" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X124" s="47">
+        <v>100.6</v>
+      </c>
+      <c r="Y124" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z124" s="47">
+        <v>6.16</v>
+      </c>
+      <c r="AA124" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB124" s="47">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="AC124" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD124" s="47">
+        <v>53.39</v>
+      </c>
+      <c r="AE124" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF124" s="47">
+        <v>3.62</v>
+      </c>
+      <c r="AG124" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH124" s="47">
+        <v>8</v>
+      </c>
+      <c r="AI124" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ124" s="47">
+        <v>31.12</v>
+      </c>
+      <c r="AK124" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL124" s="47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AM124" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN124" s="47">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AO124" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP124" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ124" s="50"/>
+    </row>
+    <row r="125" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="46">
+        <v>0</v>
+      </c>
+      <c r="B125" s="47">
+        <v>21</v>
+      </c>
+      <c r="C125" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E125" s="48">
+        <v>44427.585416666669</v>
+      </c>
+      <c r="F125" s="56"/>
+      <c r="G125" s="47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H125" s="48">
+        <v>44427.599305555559</v>
+      </c>
+      <c r="I125" s="48">
+        <v>44427.602777777778</v>
+      </c>
+      <c r="J125" s="49">
+        <v>44431.301388888889</v>
+      </c>
+      <c r="K125" s="47">
+        <v>6.62</v>
+      </c>
+      <c r="L125" s="47">
+        <v>23.75</v>
+      </c>
+      <c r="M125" s="50"/>
+      <c r="N125" s="51">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="O125" s="51">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="P125" s="47">
+        <v>-0.04</v>
+      </c>
+      <c r="Q125" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R125" s="50"/>
+      <c r="S125" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T125" s="47">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="U125" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V125" s="47">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="W125" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X125" s="47">
+        <v>100.6</v>
+      </c>
+      <c r="Y125" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z125" s="47">
+        <v>6.16</v>
+      </c>
+      <c r="AA125" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB125" s="47">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="AC125" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD125" s="47">
+        <v>53.39</v>
+      </c>
+      <c r="AE125" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF125" s="47">
+        <v>3.62</v>
+      </c>
+      <c r="AG125" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH125" s="47">
+        <v>8</v>
+      </c>
+      <c r="AI125" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ125" s="47">
+        <v>31.12</v>
+      </c>
+      <c r="AK125" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL125" s="47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AM125" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN125" s="47">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AO125" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP125" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ125" s="50"/>
+    </row>
+    <row r="126" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="46">
+        <v>0</v>
+      </c>
+      <c r="B126" s="47">
+        <v>21</v>
+      </c>
+      <c r="C126" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E126" s="48">
+        <v>44427.585416666669</v>
+      </c>
+      <c r="F126" s="56"/>
+      <c r="G126" s="47">
+        <v>3.1</v>
+      </c>
+      <c r="H126" s="48">
+        <v>44427.600694444445</v>
+      </c>
+      <c r="I126" s="48">
+        <v>44427.602777777778</v>
+      </c>
+      <c r="J126" s="49">
+        <v>44431.302083333336</v>
+      </c>
+      <c r="K126" s="47">
+        <v>6.69</v>
+      </c>
+      <c r="L126" s="47">
+        <v>23.99</v>
+      </c>
+      <c r="M126" s="50"/>
+      <c r="N126" s="51">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="O126" s="51">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="P126" s="47">
+        <v>-0.04</v>
+      </c>
+      <c r="Q126" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R126" s="50"/>
+      <c r="S126" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T126" s="47">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="U126" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V126" s="47">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="W126" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X126" s="47">
+        <v>100.6</v>
+      </c>
+      <c r="Y126" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z126" s="47">
+        <v>6.16</v>
+      </c>
+      <c r="AA126" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB126" s="47">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="AC126" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD126" s="47">
+        <v>53.39</v>
+      </c>
+      <c r="AE126" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF126" s="47">
+        <v>3.62</v>
+      </c>
+      <c r="AG126" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH126" s="47">
+        <v>8</v>
+      </c>
+      <c r="AI126" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ126" s="47">
+        <v>31.12</v>
+      </c>
+      <c r="AK126" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL126" s="47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AM126" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN126" s="47">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AO126" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP126" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ126" s="50"/>
+    </row>
+    <row r="127" spans="1:43" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="46">
+        <v>0</v>
+      </c>
+      <c r="B127" s="47">
+        <v>21</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D127" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E127" s="48">
+        <v>44427.585416666669</v>
+      </c>
+      <c r="F127" s="56"/>
+      <c r="G127" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="H127" s="48">
+        <v>44427.601388888892</v>
+      </c>
+      <c r="I127" s="48">
+        <v>44427.602777777778</v>
+      </c>
+      <c r="J127" s="49">
+        <v>44431.302083333336</v>
+      </c>
+      <c r="K127" s="47">
+        <v>6.67</v>
+      </c>
+      <c r="L127" s="47">
+        <v>23.91</v>
+      </c>
+      <c r="M127" s="50"/>
+      <c r="N127" s="51">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="O127" s="51">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="P127" s="47">
+        <v>-0.04</v>
+      </c>
+      <c r="Q127" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R127" s="50"/>
+      <c r="S127" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="T127" s="47">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="U127" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V127" s="47">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="W127" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="X127" s="47">
+        <v>100.6</v>
+      </c>
+      <c r="Y127" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z127" s="47">
+        <v>6.16</v>
+      </c>
+      <c r="AA127" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB127" s="47">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="AC127" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD127" s="47">
+        <v>53.39</v>
+      </c>
+      <c r="AE127" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF127" s="47">
+        <v>3.62</v>
+      </c>
+      <c r="AG127" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH127" s="47">
+        <v>8</v>
+      </c>
+      <c r="AI127" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ127" s="47">
+        <v>31.12</v>
+      </c>
+      <c r="AK127" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL127" s="47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AM127" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN127" s="47">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AO127" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP127" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ127" s="50"/>
+    </row>
+    <row r="128" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F128" s="29"/>
     </row>
     <row r="129" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18288,8 +20534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABBF249-51CC-4F7C-B8F7-1E1F4FE62C86}">
   <dimension ref="A1:AP59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AN58" sqref="AN2:AN58"/>
